--- a/validation/results/20220801-630062/20220801-630062.xlsx
+++ b/validation/results/20220801-630062/20220801-630062.xlsx
@@ -4412,7 +4412,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>TT</t>
+          <t>T</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -4454,7 +4454,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>GG</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>GG</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -4538,7 +4538,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>GG</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -4580,7 +4580,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>GG</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CC</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -4664,7 +4664,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>GG</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -4748,7 +4748,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>GG</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -4790,7 +4790,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -4832,7 +4832,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>CC</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -4916,7 +4916,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>TT</t>
+          <t>T</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>GG</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -5000,7 +5000,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>GG</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
